--- a/biology/Zoologie/Colibri_de_Fanny/Colibri_de_Fanny.xlsx
+++ b/biology/Zoologie/Colibri_de_Fanny/Colibri_de_Fanny.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Myrtis fanny
 Le Colibri de Fanny (Myrtis fanny), anciennement Colibri fanny, est une espèce de colibris présents en Équateur et au Pérou. C'est la seule espèce du genre Myrtis.
@@ -512,7 +524,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses habitats sont les forêts sèches, ou humides de basses et hautes altitudes, les forêts sèches de broussailles de haute altitude. On la trouve aussi sur les sites d'anciennes forêts lourdement dégradées, dans les zones urbaines et les terres arables.
 </t>
@@ -543,7 +557,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, cette espèce est constituée des deux sous-espèces suivantes :
 Myrtis fanny fanny  (Lesson, 1838)
